--- a/Jogos_do_Dia/2024-02-01_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-02-01_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,13 +691,13 @@
         <v>2.75</v>
       </c>
       <c r="J2" t="n">
-        <v>3.3</v>
+        <v>3.83</v>
       </c>
       <c r="K2" t="n">
-        <v>3.4</v>
+        <v>3.49</v>
       </c>
       <c r="L2" t="n">
-        <v>2.08</v>
+        <v>1.89</v>
       </c>
       <c r="M2" t="n">
         <v>1.4</v>
@@ -718,10 +718,10 @@
         <v>3.5</v>
       </c>
       <c r="S2" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="T2" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="U2" t="n">
         <v>1.8</v>
@@ -830,13 +830,13 @@
         <v>2.55</v>
       </c>
       <c r="J3" t="n">
-        <v>3.35</v>
+        <v>3.42</v>
       </c>
       <c r="K3" t="n">
-        <v>3.5</v>
+        <v>3.79</v>
       </c>
       <c r="L3" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="M3" t="n">
         <v>1.36</v>
@@ -857,10 +857,10 @@
         <v>3.65</v>
       </c>
       <c r="S3" t="n">
-        <v>1.9</v>
+        <v>1.78</v>
       </c>
       <c r="T3" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="U3" t="n">
         <v>1.75</v>
@@ -969,13 +969,13 @@
         <v>2.88</v>
       </c>
       <c r="J4" t="n">
-        <v>2.62</v>
+        <v>2.49</v>
       </c>
       <c r="K4" t="n">
-        <v>3.4</v>
+        <v>3.63</v>
       </c>
       <c r="L4" t="n">
-        <v>2.3</v>
+        <v>2.21</v>
       </c>
       <c r="M4" t="n">
         <v>1.3</v>
@@ -996,10 +996,10 @@
         <v>4.5</v>
       </c>
       <c r="S4" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="T4" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="U4" t="n">
         <v>1.5</v>
@@ -1041,34 +1041,34 @@
         <v>2.28</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AP4" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="5">
@@ -1108,13 +1108,13 @@
         <v>3.2</v>
       </c>
       <c r="J5" t="n">
-        <v>2.01</v>
+        <v>2.04</v>
       </c>
       <c r="K5" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="L5" t="n">
-        <v>3.3</v>
+        <v>2.98</v>
       </c>
       <c r="M5" t="n">
         <v>1.3</v>
@@ -1135,7 +1135,7 @@
         <v>4.6</v>
       </c>
       <c r="S5" t="n">
-        <v>1.59</v>
+        <v>1.68</v>
       </c>
       <c r="T5" t="n">
         <v>2.2</v>
@@ -1247,13 +1247,13 @@
         <v>2.1</v>
       </c>
       <c r="J6" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="K6" t="n">
-        <v>3.85</v>
+        <v>3.83</v>
       </c>
       <c r="L6" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="M6" t="n">
         <v>1.4</v>
@@ -1274,10 +1274,10 @@
         <v>3.6</v>
       </c>
       <c r="S6" t="n">
-        <v>1.91</v>
+        <v>1.82</v>
       </c>
       <c r="T6" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="U6" t="n">
         <v>2</v>
@@ -1301,13 +1301,13 @@
         <v>2.36</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="AC6" t="n">
         <v>1.54</v>
       </c>
       <c r="AD6" t="n">
-        <v>2.93</v>
+        <v>2.88</v>
       </c>
       <c r="AE6" t="n">
         <v>2.95</v>

--- a/Jogos_do_Dia/2024-02-01_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-02-01_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,10 +691,10 @@
         <v>2.75</v>
       </c>
       <c r="J2" t="n">
-        <v>3.83</v>
+        <v>3.44</v>
       </c>
       <c r="K2" t="n">
-        <v>3.49</v>
+        <v>3.39</v>
       </c>
       <c r="L2" t="n">
         <v>1.89</v>
@@ -718,10 +718,10 @@
         <v>3.5</v>
       </c>
       <c r="S2" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="T2" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="U2" t="n">
         <v>1.8</v>
@@ -830,13 +830,13 @@
         <v>2.55</v>
       </c>
       <c r="J3" t="n">
-        <v>3.42</v>
+        <v>3.29</v>
       </c>
       <c r="K3" t="n">
-        <v>3.79</v>
+        <v>3.63</v>
       </c>
       <c r="L3" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="M3" t="n">
         <v>1.36</v>
@@ -857,10 +857,10 @@
         <v>3.65</v>
       </c>
       <c r="S3" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="T3" t="n">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="U3" t="n">
         <v>1.75</v>
@@ -969,13 +969,13 @@
         <v>2.88</v>
       </c>
       <c r="J4" t="n">
-        <v>2.49</v>
+        <v>2.61</v>
       </c>
       <c r="K4" t="n">
-        <v>3.63</v>
+        <v>3.67</v>
       </c>
       <c r="L4" t="n">
-        <v>2.21</v>
+        <v>2.18</v>
       </c>
       <c r="M4" t="n">
         <v>1.3</v>
@@ -996,10 +996,10 @@
         <v>4.5</v>
       </c>
       <c r="S4" t="n">
-        <v>1.56</v>
+        <v>1.62</v>
       </c>
       <c r="T4" t="n">
-        <v>2.35</v>
+        <v>2.16</v>
       </c>
       <c r="U4" t="n">
         <v>1.5</v>
@@ -1108,13 +1108,13 @@
         <v>3.2</v>
       </c>
       <c r="J5" t="n">
-        <v>2.04</v>
+        <v>2.31</v>
       </c>
       <c r="K5" t="n">
-        <v>3.65</v>
+        <v>3.64</v>
       </c>
       <c r="L5" t="n">
-        <v>2.98</v>
+        <v>2.77</v>
       </c>
       <c r="M5" t="n">
         <v>1.3</v>
@@ -1135,10 +1135,10 @@
         <v>4.6</v>
       </c>
       <c r="S5" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="T5" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="U5" t="n">
         <v>1.53</v>
@@ -1247,13 +1247,13 @@
         <v>2.1</v>
       </c>
       <c r="J6" t="n">
-        <v>5.3</v>
+        <v>5.53</v>
       </c>
       <c r="K6" t="n">
-        <v>3.83</v>
+        <v>3.94</v>
       </c>
       <c r="L6" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="M6" t="n">
         <v>1.4</v>
@@ -1274,10 +1274,10 @@
         <v>3.6</v>
       </c>
       <c r="S6" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="T6" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="U6" t="n">
         <v>2</v>
